--- a/biology/Botanique/Cryptanthus_lacerdae/Cryptanthus_lacerdae.xlsx
+++ b/biology/Botanique/Cryptanthus_lacerdae/Cryptanthus_lacerdae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptanthus lacerdae est une espèce de plantes de la famille des Bromeliaceae, endémique du Brésil et décrite en 1882 par le botaniste autrichien Franz Antoine[1],[2] ou par Auguste van Geert la même année[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptanthus lacerdae est une espèce de plantes de la famille des Bromeliaceae, endémique du Brésil et décrite en 1882 par le botaniste autrichien Franz Antoine, ou par Auguste van Geert la même année.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique de l'État de Bahia à l'est du Brésil[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de l'État de Bahia à l'est du Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la classification de Raunkier, l'espèce est hémicryptophyte[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification de Raunkier, l'espèce est hémicryptophyte.
 </t>
         </is>
       </c>
